--- a/data/pca/factorExposure/factorExposure_2016-07-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01002222434768104</v>
+        <v>0.01312184686976094</v>
       </c>
       <c r="C2">
-        <v>-0.05492594944127105</v>
+        <v>0.04379890842313527</v>
       </c>
       <c r="D2">
-        <v>-0.03697909026260469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0619961394433925</v>
+      </c>
+      <c r="E2">
+        <v>0.06931587514853428</v>
+      </c>
+      <c r="F2">
+        <v>-0.06662767988976034</v>
+      </c>
+      <c r="G2">
+        <v>-0.03488868356387077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05102298502255995</v>
+        <v>0.02904006967567668</v>
       </c>
       <c r="C3">
-        <v>-0.1007806731331769</v>
+        <v>0.07945099629380002</v>
       </c>
       <c r="D3">
-        <v>-0.1060929292649014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08839668374020893</v>
+      </c>
+      <c r="E3">
+        <v>0.07140611611232585</v>
+      </c>
+      <c r="F3">
+        <v>0.005962854555223795</v>
+      </c>
+      <c r="G3">
+        <v>0.03979086873722069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06496351493693923</v>
+        <v>0.05788204982795992</v>
       </c>
       <c r="C4">
-        <v>-0.06059853383465139</v>
+        <v>0.06668213221420755</v>
       </c>
       <c r="D4">
-        <v>-0.03113977303526515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05926457077080149</v>
+      </c>
+      <c r="E4">
+        <v>0.07093503307984894</v>
+      </c>
+      <c r="F4">
+        <v>-0.07661796508167455</v>
+      </c>
+      <c r="G4">
+        <v>0.03888214863596656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03962115393283072</v>
+        <v>0.03547584655441166</v>
       </c>
       <c r="C6">
-        <v>-0.03875523720080481</v>
+        <v>0.03235021284019298</v>
       </c>
       <c r="D6">
-        <v>-0.03584136360889128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06388509088533295</v>
+      </c>
+      <c r="E6">
+        <v>0.07346889371729742</v>
+      </c>
+      <c r="F6">
+        <v>-0.05731630210503802</v>
+      </c>
+      <c r="G6">
+        <v>0.02319178260655061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02157416681101046</v>
+        <v>0.01848534913441241</v>
       </c>
       <c r="C7">
-        <v>-0.04389935199847429</v>
+        <v>0.03867674135187245</v>
       </c>
       <c r="D7">
-        <v>0.003320158896815334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0369173544603108</v>
+      </c>
+      <c r="E7">
+        <v>0.04806033377668576</v>
+      </c>
+      <c r="F7">
+        <v>-0.0992863484159151</v>
+      </c>
+      <c r="G7">
+        <v>0.008856098747868097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002729891426286919</v>
+        <v>0.003225380224896431</v>
       </c>
       <c r="C8">
-        <v>-0.02726187536249777</v>
+        <v>0.02910989256166728</v>
       </c>
       <c r="D8">
-        <v>-0.03075289362957783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03106622974809627</v>
+      </c>
+      <c r="E8">
+        <v>0.05068282653070502</v>
+      </c>
+      <c r="F8">
+        <v>-0.0371040280484806</v>
+      </c>
+      <c r="G8">
+        <v>0.009471289197338145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0347656912160329</v>
+        <v>0.0365500995321043</v>
       </c>
       <c r="C9">
-        <v>-0.04597492551697338</v>
+        <v>0.0528498747263524</v>
       </c>
       <c r="D9">
-        <v>-0.01737359754178598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04252590450774073</v>
+      </c>
+      <c r="E9">
+        <v>0.05687077936761904</v>
+      </c>
+      <c r="F9">
+        <v>-0.08391323470620998</v>
+      </c>
+      <c r="G9">
+        <v>0.02460642819272253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07381173000146776</v>
+        <v>0.09987353258966232</v>
       </c>
       <c r="C10">
-        <v>0.1956949061868474</v>
+        <v>-0.1967024188078104</v>
       </c>
       <c r="D10">
-        <v>0.004964502685395312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005297863521904631</v>
+      </c>
+      <c r="E10">
+        <v>0.04333650403860727</v>
+      </c>
+      <c r="F10">
+        <v>-0.04003329464374312</v>
+      </c>
+      <c r="G10">
+        <v>0.008195701932521275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04082272627926713</v>
+        <v>0.03631254735367023</v>
       </c>
       <c r="C11">
-        <v>-0.0548542816212411</v>
+        <v>0.05137985365235632</v>
       </c>
       <c r="D11">
-        <v>-0.01476421079263568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03363818602259953</v>
+      </c>
+      <c r="E11">
+        <v>0.01652818728833523</v>
+      </c>
+      <c r="F11">
+        <v>-0.06519536687806508</v>
+      </c>
+      <c r="G11">
+        <v>0.01570563822524101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04077642513292268</v>
+        <v>0.03711592934406183</v>
       </c>
       <c r="C12">
-        <v>-0.04841072640770915</v>
+        <v>0.04722159625579224</v>
       </c>
       <c r="D12">
-        <v>-0.003559753865402121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02525656006332246</v>
+      </c>
+      <c r="E12">
+        <v>0.02366958763989965</v>
+      </c>
+      <c r="F12">
+        <v>-0.0666304547386789</v>
+      </c>
+      <c r="G12">
+        <v>0.01267209079993177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01510892313855703</v>
+        <v>0.01218744887717172</v>
       </c>
       <c r="C13">
-        <v>-0.05554177174068597</v>
+        <v>0.0467456014853308</v>
       </c>
       <c r="D13">
-        <v>-0.0202445246391139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05712998159987943</v>
+      </c>
+      <c r="E13">
+        <v>0.08290499170459407</v>
+      </c>
+      <c r="F13">
+        <v>-0.09625425900277085</v>
+      </c>
+      <c r="G13">
+        <v>0.02250110692594853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006792083131819357</v>
+        <v>0.004618710565726553</v>
       </c>
       <c r="C14">
-        <v>-0.03764099670441023</v>
+        <v>0.0333228726644668</v>
       </c>
       <c r="D14">
-        <v>0.01344156166574054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02495597447820047</v>
+      </c>
+      <c r="E14">
+        <v>0.0369709426667274</v>
+      </c>
+      <c r="F14">
+        <v>-0.09447566686557447</v>
+      </c>
+      <c r="G14">
+        <v>-0.004248516931926807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003554112093758718</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004658471069003365</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.005696137072503776</v>
+      </c>
+      <c r="E15">
+        <v>0.001986393337132853</v>
+      </c>
+      <c r="F15">
+        <v>-0.004537828225388768</v>
+      </c>
+      <c r="G15">
+        <v>-0.0008196796995093536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03727806941619777</v>
+        <v>0.03388810645243569</v>
       </c>
       <c r="C16">
-        <v>-0.04717768265309239</v>
+        <v>0.04529623773772396</v>
       </c>
       <c r="D16">
-        <v>-0.009640161351360942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02728455359042059</v>
+      </c>
+      <c r="E16">
+        <v>0.03086363519748057</v>
+      </c>
+      <c r="F16">
+        <v>-0.06763500938733755</v>
+      </c>
+      <c r="G16">
+        <v>0.001887767775935135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02331544143955496</v>
+        <v>0.01647219088661316</v>
       </c>
       <c r="C19">
-        <v>-0.06500792033230353</v>
+        <v>0.05064781055941994</v>
       </c>
       <c r="D19">
-        <v>-0.08056197600693898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09002347226210232</v>
+      </c>
+      <c r="E19">
+        <v>0.09995889539391566</v>
+      </c>
+      <c r="F19">
+        <v>-0.07459151492328284</v>
+      </c>
+      <c r="G19">
+        <v>-0.02263557626288938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01664303775206438</v>
+        <v>0.01362908386500469</v>
       </c>
       <c r="C20">
-        <v>-0.04624821506201383</v>
+        <v>0.04122435318429663</v>
       </c>
       <c r="D20">
-        <v>-0.01956567126240032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0373165222866652</v>
+      </c>
+      <c r="E20">
+        <v>0.06711037495907286</v>
+      </c>
+      <c r="F20">
+        <v>-0.07829996043359735</v>
+      </c>
+      <c r="G20">
+        <v>0.006571405462788762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01120903262865133</v>
+        <v>0.009310418777601824</v>
       </c>
       <c r="C21">
-        <v>-0.05116781015880319</v>
+        <v>0.04602502576546078</v>
       </c>
       <c r="D21">
-        <v>-0.04094315152610292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06670566530209633</v>
+      </c>
+      <c r="E21">
+        <v>0.09707210548384117</v>
+      </c>
+      <c r="F21">
+        <v>-0.1218759462164046</v>
+      </c>
+      <c r="G21">
+        <v>0.00965942421134045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002096241178676602</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02412789230118623</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03630999696686152</v>
+      </c>
+      <c r="E22">
+        <v>0.02865684261822048</v>
+      </c>
+      <c r="F22">
+        <v>-0.01455698459784583</v>
+      </c>
+      <c r="G22">
+        <v>0.03945019690774679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002166144557240117</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02427170800391093</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03597281053460682</v>
+      </c>
+      <c r="E23">
+        <v>0.02892884541243819</v>
+      </c>
+      <c r="F23">
+        <v>-0.01435589354305794</v>
+      </c>
+      <c r="G23">
+        <v>0.03965110086755104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03301671900218657</v>
+        <v>0.03356854208957624</v>
       </c>
       <c r="C24">
-        <v>-0.05131730750472692</v>
+        <v>0.05361601572411649</v>
       </c>
       <c r="D24">
-        <v>-0.008049723207289465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02614106321209038</v>
+      </c>
+      <c r="E24">
+        <v>0.02761534399609871</v>
+      </c>
+      <c r="F24">
+        <v>-0.07624919225425199</v>
+      </c>
+      <c r="G24">
+        <v>0.01028551076161661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04694115649562446</v>
+        <v>0.04374822084633855</v>
       </c>
       <c r="C25">
-        <v>-0.06143510517129293</v>
+        <v>0.05733583297930812</v>
       </c>
       <c r="D25">
-        <v>0.0006817049969690545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02428342944168558</v>
+      </c>
+      <c r="E25">
+        <v>0.02247016747839861</v>
+      </c>
+      <c r="F25">
+        <v>-0.07773658699306149</v>
+      </c>
+      <c r="G25">
+        <v>0.02730640432939053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01628458734338138</v>
+        <v>0.01398277340123384</v>
       </c>
       <c r="C26">
-        <v>-0.01564972247610176</v>
+        <v>0.0175009376250464</v>
       </c>
       <c r="D26">
-        <v>0.001063742790615016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02462302790379271</v>
+      </c>
+      <c r="E26">
+        <v>0.03897812962461784</v>
+      </c>
+      <c r="F26">
+        <v>-0.06739257057441812</v>
+      </c>
+      <c r="G26">
+        <v>-0.01299580290967024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08638499231337905</v>
+        <v>0.134456290585508</v>
       </c>
       <c r="C28">
-        <v>0.2330699053211025</v>
+        <v>-0.2466161711176487</v>
       </c>
       <c r="D28">
-        <v>0.006372289722800411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02087790184479658</v>
+      </c>
+      <c r="E28">
+        <v>0.05068066549133601</v>
+      </c>
+      <c r="F28">
+        <v>-0.05931975654779769</v>
+      </c>
+      <c r="G28">
+        <v>0.02000922051475498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008695351486050825</v>
+        <v>0.005611733739751809</v>
       </c>
       <c r="C29">
-        <v>-0.03045123854341438</v>
+        <v>0.02915393807494693</v>
       </c>
       <c r="D29">
-        <v>0.01914114432578608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01826632365690969</v>
+      </c>
+      <c r="E29">
+        <v>0.03721691204003183</v>
+      </c>
+      <c r="F29">
+        <v>-0.08744481724858152</v>
+      </c>
+      <c r="G29">
+        <v>0.008586658917571864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04952967761800146</v>
+        <v>0.04221479847246037</v>
       </c>
       <c r="C30">
-        <v>-0.06264991505362791</v>
+        <v>0.06516815716123021</v>
       </c>
       <c r="D30">
-        <v>-0.07739991736086146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1089292622091276</v>
+      </c>
+      <c r="E30">
+        <v>0.06158183577236813</v>
+      </c>
+      <c r="F30">
+        <v>-0.08897129150044365</v>
+      </c>
+      <c r="G30">
+        <v>-0.01128931076621321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05446582097472925</v>
+        <v>0.05485860246325829</v>
       </c>
       <c r="C31">
-        <v>-0.03518281968636711</v>
+        <v>0.05558343830783114</v>
       </c>
       <c r="D31">
-        <v>0.02778779915605982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01297360378796902</v>
+      </c>
+      <c r="E31">
+        <v>0.06101730161212668</v>
+      </c>
+      <c r="F31">
+        <v>-0.07246806926182746</v>
+      </c>
+      <c r="G31">
+        <v>0.0474370786271997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001556968321927619</v>
+        <v>0.004664063347010593</v>
       </c>
       <c r="C32">
-        <v>-0.03938708041994707</v>
+        <v>0.03497777304620412</v>
       </c>
       <c r="D32">
-        <v>-0.04345088912621516</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05048331719658173</v>
+      </c>
+      <c r="E32">
+        <v>0.04001801843714914</v>
+      </c>
+      <c r="F32">
+        <v>-0.0638738307070623</v>
+      </c>
+      <c r="G32">
+        <v>-0.01014562317694849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02774799030925689</v>
+        <v>0.02471014135150271</v>
       </c>
       <c r="C33">
-        <v>-0.0612319499717682</v>
+        <v>0.05500880420760234</v>
       </c>
       <c r="D33">
-        <v>-0.0458666141632373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07768120803149457</v>
+      </c>
+      <c r="E33">
+        <v>0.07175409006080533</v>
+      </c>
+      <c r="F33">
+        <v>-0.1190165869348623</v>
+      </c>
+      <c r="G33">
+        <v>0.02237902264788275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04474581332458483</v>
+        <v>0.04099547737473257</v>
       </c>
       <c r="C34">
-        <v>-0.06661252977485886</v>
+        <v>0.06424037774293571</v>
       </c>
       <c r="D34">
-        <v>-0.01020495841136578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03354578783751995</v>
+      </c>
+      <c r="E34">
+        <v>0.002161512319331066</v>
+      </c>
+      <c r="F34">
+        <v>-0.07816365143026151</v>
+      </c>
+      <c r="G34">
+        <v>0.01263319191179545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01316409845960223</v>
+        <v>0.01303757388072848</v>
       </c>
       <c r="C36">
-        <v>-0.01679414323505904</v>
+        <v>0.0130512068715937</v>
       </c>
       <c r="D36">
-        <v>0.001701902016476289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02601843296946113</v>
+      </c>
+      <c r="E36">
+        <v>0.04634235089111913</v>
+      </c>
+      <c r="F36">
+        <v>-0.07478450769716936</v>
+      </c>
+      <c r="G36">
+        <v>0.01006429450587983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03058643504676495</v>
+        <v>0.0242041262642903</v>
       </c>
       <c r="C38">
-        <v>-0.02879580325823106</v>
+        <v>0.02499368980947984</v>
       </c>
       <c r="D38">
-        <v>0.005247791021923499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02646828110097999</v>
+      </c>
+      <c r="E38">
+        <v>0.04554271890454024</v>
+      </c>
+      <c r="F38">
+        <v>-0.06333275716863988</v>
+      </c>
+      <c r="G38">
+        <v>0.004855153481077624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04543128311146166</v>
+        <v>0.03955806543336869</v>
       </c>
       <c r="C39">
-        <v>-0.07147950254332615</v>
+        <v>0.06879328088632647</v>
       </c>
       <c r="D39">
-        <v>-0.02148811972527733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05301003852626913</v>
+      </c>
+      <c r="E39">
+        <v>0.03282256938410759</v>
+      </c>
+      <c r="F39">
+        <v>-0.08681029784697737</v>
+      </c>
+      <c r="G39">
+        <v>-0.01264279974336052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01476413313283031</v>
+        <v>0.01542394135916473</v>
       </c>
       <c r="C40">
-        <v>-0.04239887042314755</v>
+        <v>0.04059119497691395</v>
       </c>
       <c r="D40">
-        <v>-0.03841498198667468</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03876222622888212</v>
+      </c>
+      <c r="E40">
+        <v>0.08153042818956985</v>
+      </c>
+      <c r="F40">
+        <v>-0.06907279348867094</v>
+      </c>
+      <c r="G40">
+        <v>0.04579762136242552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01806583713804246</v>
+        <v>0.01787225372938346</v>
       </c>
       <c r="C41">
-        <v>-0.005887741162643627</v>
+        <v>0.007011043245059287</v>
       </c>
       <c r="D41">
-        <v>0.003070338314850611</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01355005405778038</v>
+      </c>
+      <c r="E41">
+        <v>0.04972934825611779</v>
+      </c>
+      <c r="F41">
+        <v>-0.0639584761037178</v>
+      </c>
+      <c r="G41">
+        <v>0.002984455880145759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03680544882063273</v>
+        <v>0.02871645413844857</v>
       </c>
       <c r="C43">
-        <v>-0.02311701702990097</v>
+        <v>0.02164490753514908</v>
       </c>
       <c r="D43">
-        <v>-0.01824432318502126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03906192655278862</v>
+      </c>
+      <c r="E43">
+        <v>0.06100642732236588</v>
+      </c>
+      <c r="F43">
+        <v>-0.07501681675705378</v>
+      </c>
+      <c r="G43">
+        <v>0.02281426147451521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01568975540024517</v>
+        <v>0.01429048568875814</v>
       </c>
       <c r="C44">
-        <v>-0.06149169108204887</v>
+        <v>0.0516310896703854</v>
       </c>
       <c r="D44">
-        <v>-0.01951871064381518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04022652742878977</v>
+      </c>
+      <c r="E44">
+        <v>0.07737802517664485</v>
+      </c>
+      <c r="F44">
+        <v>-0.07671617070058723</v>
+      </c>
+      <c r="G44">
+        <v>-0.004820978032895599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004822890172414713</v>
+        <v>0.007627303529998031</v>
       </c>
       <c r="C46">
-        <v>-0.02363476801519714</v>
+        <v>0.02603737172480277</v>
       </c>
       <c r="D46">
-        <v>0.02142897486256783</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009586690632357606</v>
+      </c>
+      <c r="E46">
+        <v>0.04601174852824357</v>
+      </c>
+      <c r="F46">
+        <v>-0.09966684031830572</v>
+      </c>
+      <c r="G46">
+        <v>0.001574543737164272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08428429903062774</v>
+        <v>0.08710169087163615</v>
       </c>
       <c r="C47">
-        <v>-0.06441575878547748</v>
+        <v>0.07921500601663846</v>
       </c>
       <c r="D47">
-        <v>0.02586570718446748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0188945603921279</v>
+      </c>
+      <c r="E47">
+        <v>0.06366532722012243</v>
+      </c>
+      <c r="F47">
+        <v>-0.07383596871486235</v>
+      </c>
+      <c r="G47">
+        <v>0.05084728707842186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01873937250468324</v>
+        <v>0.01566575389302237</v>
       </c>
       <c r="C48">
-        <v>-0.0131865994499244</v>
+        <v>0.01717845318408022</v>
       </c>
       <c r="D48">
-        <v>0.01477484451660393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01453455033070927</v>
+      </c>
+      <c r="E48">
+        <v>0.05737631259662714</v>
+      </c>
+      <c r="F48">
+        <v>-0.08961819372371602</v>
+      </c>
+      <c r="G48">
+        <v>0.009580755944676762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08160360077212298</v>
+        <v>0.07083206354634182</v>
       </c>
       <c r="C50">
-        <v>-0.07030328269461154</v>
+        <v>0.07192202190625734</v>
       </c>
       <c r="D50">
-        <v>0.02838253390197044</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006303986611245268</v>
+      </c>
+      <c r="E50">
+        <v>0.06651510581275243</v>
+      </c>
+      <c r="F50">
+        <v>-0.05911016789501008</v>
+      </c>
+      <c r="G50">
+        <v>0.07109242981136693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01466408864756148</v>
+        <v>0.01060857337541767</v>
       </c>
       <c r="C51">
-        <v>-0.05051357796860408</v>
+        <v>0.03417379466515345</v>
       </c>
       <c r="D51">
-        <v>-0.02489745368613093</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04880992317134219</v>
+      </c>
+      <c r="E51">
+        <v>0.03706940789907508</v>
+      </c>
+      <c r="F51">
+        <v>-0.07776718842857466</v>
+      </c>
+      <c r="G51">
+        <v>-0.01865423507635434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08266512664990262</v>
+        <v>0.09368527672977112</v>
       </c>
       <c r="C53">
-        <v>-0.07178351399339007</v>
+        <v>0.08638848241027948</v>
       </c>
       <c r="D53">
-        <v>0.03733010131306277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04391183496248786</v>
+      </c>
+      <c r="E53">
+        <v>0.06014561363152617</v>
+      </c>
+      <c r="F53">
+        <v>-0.08324908426789007</v>
+      </c>
+      <c r="G53">
+        <v>0.06277347528713234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02997841227589299</v>
+        <v>0.02767613455769517</v>
       </c>
       <c r="C54">
-        <v>-0.02690452840515957</v>
+        <v>0.02677159082996435</v>
       </c>
       <c r="D54">
-        <v>0.001070663233300607</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02878027355461082</v>
+      </c>
+      <c r="E54">
+        <v>0.04706447707884974</v>
+      </c>
+      <c r="F54">
+        <v>-0.0976827802858741</v>
+      </c>
+      <c r="G54">
+        <v>0.00971717919890035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07633300080558102</v>
+        <v>0.08514305898112272</v>
       </c>
       <c r="C55">
-        <v>-0.05519892683480777</v>
+        <v>0.0696928056601519</v>
       </c>
       <c r="D55">
-        <v>0.04622029937787308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05007331993447094</v>
+      </c>
+      <c r="E55">
+        <v>0.04712329975689653</v>
+      </c>
+      <c r="F55">
+        <v>-0.05898259310094208</v>
+      </c>
+      <c r="G55">
+        <v>0.05162590336801803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.146740572529915</v>
+        <v>0.1470690848989772</v>
       </c>
       <c r="C56">
-        <v>-0.09096675653177823</v>
+        <v>0.1043311111420704</v>
       </c>
       <c r="D56">
-        <v>0.04558002826611934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05341176520557708</v>
+      </c>
+      <c r="E56">
+        <v>0.05014351647207427</v>
+      </c>
+      <c r="F56">
+        <v>-0.04191648625050339</v>
+      </c>
+      <c r="G56">
+        <v>0.05824536773839357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0008587761108998758</v>
+        <v>0.0002983186730863191</v>
       </c>
       <c r="C57">
-        <v>-0.0008192906849808924</v>
+        <v>0.0006200511615520419</v>
       </c>
       <c r="D57">
-        <v>-0.016919159933488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01228387331649689</v>
+      </c>
+      <c r="E57">
+        <v>0.009355122269486434</v>
+      </c>
+      <c r="F57">
+        <v>-0.00626406445300581</v>
+      </c>
+      <c r="G57">
+        <v>0.002558563364844758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05991250114621025</v>
+        <v>0.02843893988261914</v>
       </c>
       <c r="C58">
-        <v>-0.02613664689719701</v>
+        <v>0.03720880252153021</v>
       </c>
       <c r="D58">
-        <v>-0.7449449215007148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4105796785334969</v>
+      </c>
+      <c r="E58">
+        <v>0.6640384950645989</v>
+      </c>
+      <c r="F58">
+        <v>0.5422564970860513</v>
+      </c>
+      <c r="G58">
+        <v>-0.07293639372581116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1304254749558871</v>
+        <v>0.1450040805475665</v>
       </c>
       <c r="C59">
-        <v>0.196959578884018</v>
+        <v>-0.1860612267451106</v>
       </c>
       <c r="D59">
-        <v>-0.0232533700684546</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03110983884536652</v>
+      </c>
+      <c r="E59">
+        <v>0.02799273746518422</v>
+      </c>
+      <c r="F59">
+        <v>-0.02080358441761677</v>
+      </c>
+      <c r="G59">
+        <v>-0.02925020831295261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3104873381777162</v>
+        <v>0.2826706054694595</v>
       </c>
       <c r="C60">
-        <v>-0.08539966130289553</v>
+        <v>0.09844576844815268</v>
       </c>
       <c r="D60">
-        <v>-0.1105093770652268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2222610399254452</v>
+      </c>
+      <c r="E60">
+        <v>-0.2655121323442472</v>
+      </c>
+      <c r="F60">
+        <v>0.09167758044803503</v>
+      </c>
+      <c r="G60">
+        <v>0.04807311177381758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04217230550221605</v>
+        <v>0.0409296206491845</v>
       </c>
       <c r="C61">
-        <v>-0.06565588724141866</v>
+        <v>0.062796397112192</v>
       </c>
       <c r="D61">
-        <v>-0.01692254335167369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04467662371101588</v>
+      </c>
+      <c r="E61">
+        <v>0.03700974136614556</v>
+      </c>
+      <c r="F61">
+        <v>-0.07721161421579743</v>
+      </c>
+      <c r="G61">
+        <v>0.013054396454321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01578155516705414</v>
+        <v>0.01498886584920081</v>
       </c>
       <c r="C63">
-        <v>-0.03546818677993069</v>
+        <v>0.03267318971943241</v>
       </c>
       <c r="D63">
-        <v>0.006030932317573934</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02113215365545633</v>
+      </c>
+      <c r="E63">
+        <v>0.04941839641271868</v>
+      </c>
+      <c r="F63">
+        <v>-0.07018417681144294</v>
+      </c>
+      <c r="G63">
+        <v>0.02870082927751365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04704400423689695</v>
+        <v>0.05544770554593408</v>
       </c>
       <c r="C64">
-        <v>-0.04355418138996735</v>
+        <v>0.05501348869324037</v>
       </c>
       <c r="D64">
-        <v>-0.002079190975756331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005054967268916844</v>
+      </c>
+      <c r="E64">
+        <v>0.03061755546233336</v>
+      </c>
+      <c r="F64">
+        <v>-0.08357957243088807</v>
+      </c>
+      <c r="G64">
+        <v>0.01028455523829492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0891563738158037</v>
+        <v>0.06955344184811013</v>
       </c>
       <c r="C65">
-        <v>-0.03164357075375909</v>
+        <v>0.03339251134696646</v>
       </c>
       <c r="D65">
-        <v>-0.05348091481131021</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08713450440148458</v>
+      </c>
+      <c r="E65">
+        <v>0.03826927394098781</v>
+      </c>
+      <c r="F65">
+        <v>-0.007762905554406125</v>
+      </c>
+      <c r="G65">
+        <v>0.004310092263279918</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06389945110775651</v>
+        <v>0.0523506592353679</v>
       </c>
       <c r="C66">
-        <v>-0.1024774963703677</v>
+        <v>0.09079473596807359</v>
       </c>
       <c r="D66">
-        <v>-0.04384784617899661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08044801837563809</v>
+      </c>
+      <c r="E66">
+        <v>0.03931950671052701</v>
+      </c>
+      <c r="F66">
+        <v>-0.08847379857519706</v>
+      </c>
+      <c r="G66">
+        <v>0.005334929114378621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05309375957770414</v>
+        <v>0.04618776310494474</v>
       </c>
       <c r="C67">
-        <v>-0.0328698881202014</v>
+        <v>0.03145247044899135</v>
       </c>
       <c r="D67">
-        <v>0.008764385648696126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0134624943502509</v>
+      </c>
+      <c r="E67">
+        <v>0.02560008120884301</v>
+      </c>
+      <c r="F67">
+        <v>-0.0522570596570568</v>
+      </c>
+      <c r="G67">
+        <v>0.01159508388290794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1160098813398297</v>
+        <v>0.1503283713682671</v>
       </c>
       <c r="C68">
-        <v>0.2847298389356399</v>
+        <v>-0.2506008049938518</v>
       </c>
       <c r="D68">
-        <v>0.006007182555114883</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01935557480594223</v>
+      </c>
+      <c r="E68">
+        <v>0.04294007623127585</v>
+      </c>
+      <c r="F68">
+        <v>-0.01428959444177375</v>
+      </c>
+      <c r="G68">
+        <v>0.01036509468272539</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09072709014694832</v>
+        <v>0.08692828754749163</v>
       </c>
       <c r="C69">
-        <v>-0.06334623087507166</v>
+        <v>0.085594264914697</v>
       </c>
       <c r="D69">
-        <v>0.038738185915665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01041833552616655</v>
+      </c>
+      <c r="E69">
+        <v>0.04773683614882568</v>
+      </c>
+      <c r="F69">
+        <v>-0.09077546069890684</v>
+      </c>
+      <c r="G69">
+        <v>0.02806403564918883</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1104915508309249</v>
+        <v>0.1428823884903943</v>
       </c>
       <c r="C71">
-        <v>0.2465554953682865</v>
+        <v>-0.2339273680973381</v>
       </c>
       <c r="D71">
-        <v>-0.02969916664401143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0136406540479782</v>
+      </c>
+      <c r="E71">
+        <v>0.06237335967393418</v>
+      </c>
+      <c r="F71">
+        <v>-0.05475314558428482</v>
+      </c>
+      <c r="G71">
+        <v>0.03633512218667582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08973077276174053</v>
+        <v>0.09763483730158716</v>
       </c>
       <c r="C72">
-        <v>-0.05079002789237252</v>
+        <v>0.05682158771892062</v>
       </c>
       <c r="D72">
-        <v>-0.004903377913438585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02786599339789185</v>
+      </c>
+      <c r="E72">
+        <v>0.01584469604659779</v>
+      </c>
+      <c r="F72">
+        <v>-0.07011683688805534</v>
+      </c>
+      <c r="G72">
+        <v>0.03352269856888974</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4189426242627185</v>
+        <v>0.3467778818439134</v>
       </c>
       <c r="C73">
-        <v>-0.06465331977678339</v>
+        <v>0.08068644399845785</v>
       </c>
       <c r="D73">
-        <v>-0.3024933644144668</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4697096676752232</v>
+      </c>
+      <c r="E73">
+        <v>-0.4727576883274662</v>
+      </c>
+      <c r="F73">
+        <v>0.2488293451578674</v>
+      </c>
+      <c r="G73">
+        <v>0.1045901597437835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.110898981229886</v>
+        <v>0.111000268848146</v>
       </c>
       <c r="C74">
-        <v>-0.09823196621777242</v>
+        <v>0.09882094944099253</v>
       </c>
       <c r="D74">
-        <v>0.02260438623499046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03273475080840559</v>
+      </c>
+      <c r="E74">
+        <v>0.06427126240916731</v>
+      </c>
+      <c r="F74">
+        <v>-0.04799960072060549</v>
+      </c>
+      <c r="G74">
+        <v>0.07422018715846158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2524528922601745</v>
+        <v>0.2571278663824753</v>
       </c>
       <c r="C75">
-        <v>-0.1012326619992695</v>
+        <v>0.1312953267788669</v>
       </c>
       <c r="D75">
-        <v>0.08448472970320085</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1318337397654166</v>
+      </c>
+      <c r="E75">
+        <v>0.06884330811121848</v>
+      </c>
+      <c r="F75">
+        <v>-0.00907122937336436</v>
+      </c>
+      <c r="G75">
+        <v>0.07267446374344415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1140682333956953</v>
+        <v>0.1280951872749154</v>
       </c>
       <c r="C76">
-        <v>-0.08703781927845637</v>
+        <v>0.09932156043950541</v>
       </c>
       <c r="D76">
-        <v>0.04225805440207651</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06215366339923706</v>
+      </c>
+      <c r="E76">
+        <v>0.07768093171501378</v>
+      </c>
+      <c r="F76">
+        <v>-0.06557342319454489</v>
+      </c>
+      <c r="G76">
+        <v>0.05814721189642224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07676891452135418</v>
+        <v>0.06248389592458104</v>
       </c>
       <c r="C77">
-        <v>-0.06079057896062073</v>
+        <v>0.07418513475044129</v>
       </c>
       <c r="D77">
-        <v>-0.06011824188837443</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06252521543195665</v>
+      </c>
+      <c r="E77">
+        <v>0.09135430565204959</v>
+      </c>
+      <c r="F77">
+        <v>-0.1082014342344646</v>
+      </c>
+      <c r="G77">
+        <v>-0.1346309728073203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04876125181444075</v>
+        <v>0.04312587741149188</v>
       </c>
       <c r="C78">
-        <v>-0.04937804694578453</v>
+        <v>0.06160064167106898</v>
       </c>
       <c r="D78">
-        <v>-0.02259349587234293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06706594257067026</v>
+      </c>
+      <c r="E78">
+        <v>0.04259895851518383</v>
+      </c>
+      <c r="F78">
+        <v>-0.09033741870670196</v>
+      </c>
+      <c r="G78">
+        <v>0.009080246563272833</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02578034940491761</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03900682511192886</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06329707241174455</v>
+      </c>
+      <c r="E79">
+        <v>0.05518646964045727</v>
+      </c>
+      <c r="F79">
+        <v>-0.03405407655680841</v>
+      </c>
+      <c r="G79">
+        <v>0.06539103898654768</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04623618196981871</v>
+        <v>0.03463909295412218</v>
       </c>
       <c r="C80">
-        <v>-0.05299839777967374</v>
+        <v>0.05477708334086493</v>
       </c>
       <c r="D80">
-        <v>-0.0310604019313023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04347441892772396</v>
+      </c>
+      <c r="E80">
+        <v>0.01574210575069556</v>
+      </c>
+      <c r="F80">
+        <v>-0.03460359806854014</v>
+      </c>
+      <c r="G80">
+        <v>-0.04696471682110817</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1420601781563524</v>
+        <v>0.1405714950284548</v>
       </c>
       <c r="C81">
-        <v>-0.07182908143464556</v>
+        <v>0.0937827954814292</v>
       </c>
       <c r="D81">
-        <v>0.06247090246571333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1030687055580221</v>
+      </c>
+      <c r="E81">
+        <v>0.08391341982764612</v>
+      </c>
+      <c r="F81">
+        <v>-0.009458399634626817</v>
+      </c>
+      <c r="G81">
+        <v>0.05100987223194992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1598020680653024</v>
+        <v>0.2018224457570355</v>
       </c>
       <c r="C82">
-        <v>-0.06328985097197054</v>
+        <v>0.1380770850208659</v>
       </c>
       <c r="D82">
-        <v>0.1564318235878435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2390328733753727</v>
+      </c>
+      <c r="E82">
+        <v>-0.001239869075797134</v>
+      </c>
+      <c r="F82">
+        <v>-0.09256041190377438</v>
+      </c>
+      <c r="G82">
+        <v>0.04504604760948237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03791649743976265</v>
+        <v>0.02822727272756419</v>
       </c>
       <c r="C83">
-        <v>-0.02614098444938057</v>
+        <v>0.04189182269340067</v>
       </c>
       <c r="D83">
-        <v>-0.03313189095214484</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03415608991974945</v>
+      </c>
+      <c r="E83">
+        <v>0.02061876178454296</v>
+      </c>
+      <c r="F83">
+        <v>-0.04234289896324434</v>
+      </c>
+      <c r="G83">
+        <v>-0.0208110772253182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>5.321456132171187e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0001720476894333279</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>5.89421390370614e-05</v>
+      </c>
+      <c r="E84">
+        <v>0.0002094402280108997</v>
+      </c>
+      <c r="F84">
+        <v>0.0002327611627683628</v>
+      </c>
+      <c r="G84">
+        <v>1.156281707098889e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2207616734707096</v>
+        <v>0.2037287112735501</v>
       </c>
       <c r="C85">
-        <v>-0.09859603498627555</v>
+        <v>0.1178707036296705</v>
       </c>
       <c r="D85">
-        <v>0.1156578398484108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1002726065342927</v>
+      </c>
+      <c r="E85">
+        <v>-0.0008964013288895641</v>
+      </c>
+      <c r="F85">
+        <v>0.01493920687854868</v>
+      </c>
+      <c r="G85">
+        <v>0.1240423273619421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009656039925051329</v>
+        <v>0.01112991356389414</v>
       </c>
       <c r="C86">
-        <v>-0.03761272347716365</v>
+        <v>0.03176998194037689</v>
       </c>
       <c r="D86">
-        <v>-0.0484987551206805</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06513232338547316</v>
+      </c>
+      <c r="E86">
+        <v>0.06554404917678867</v>
+      </c>
+      <c r="F86">
+        <v>-0.1249515691098581</v>
+      </c>
+      <c r="G86">
+        <v>-0.01186269628000876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02220580551469475</v>
+        <v>0.0216296805021658</v>
       </c>
       <c r="C87">
-        <v>-0.02169610827389224</v>
+        <v>0.0225364112717303</v>
       </c>
       <c r="D87">
-        <v>-0.09808953554512523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0885005099310972</v>
+      </c>
+      <c r="E87">
+        <v>0.1098351084114213</v>
+      </c>
+      <c r="F87">
+        <v>-0.07474339482791865</v>
+      </c>
+      <c r="G87">
+        <v>-0.03690808571047079</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.106874288339178</v>
+        <v>0.0920710855767673</v>
       </c>
       <c r="C88">
-        <v>-0.06731783754488165</v>
+        <v>0.0619615858292781</v>
       </c>
       <c r="D88">
-        <v>0.03071147589085314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008178877534457537</v>
+      </c>
+      <c r="E88">
+        <v>0.04088068429902621</v>
+      </c>
+      <c r="F88">
+        <v>-0.07176930328602776</v>
+      </c>
+      <c r="G88">
+        <v>-0.02853212679234062</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1775203912737415</v>
+        <v>0.2210530651582719</v>
       </c>
       <c r="C89">
-        <v>0.3818999072390244</v>
+        <v>-0.3786766758650359</v>
       </c>
       <c r="D89">
-        <v>0.01107286805839675</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004664927345549871</v>
+      </c>
+      <c r="E89">
+        <v>0.06263997157551084</v>
+      </c>
+      <c r="F89">
+        <v>-0.07580883060304046</v>
+      </c>
+      <c r="G89">
+        <v>-0.0636629993923455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1722133253255059</v>
+        <v>0.2007439409539486</v>
       </c>
       <c r="C90">
-        <v>0.3446407758082707</v>
+        <v>-0.3145724800110747</v>
       </c>
       <c r="D90">
-        <v>0.01706275875794692</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01341756278995834</v>
+      </c>
+      <c r="E90">
+        <v>0.0731528955651979</v>
+      </c>
+      <c r="F90">
+        <v>-0.04121277154925781</v>
+      </c>
+      <c r="G90">
+        <v>-0.01335728504546834</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1914682142892177</v>
+        <v>0.1861255884140341</v>
       </c>
       <c r="C91">
-        <v>-0.1201204536948161</v>
+        <v>0.1402004054283554</v>
       </c>
       <c r="D91">
-        <v>0.08403608679801419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1120309912828186</v>
+      </c>
+      <c r="E91">
+        <v>0.0610959638766411</v>
+      </c>
+      <c r="F91">
+        <v>-0.03244491975236166</v>
+      </c>
+      <c r="G91">
+        <v>0.05826467433098981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1639065263109262</v>
+        <v>0.1829160035508776</v>
       </c>
       <c r="C92">
-        <v>0.2930243284021705</v>
+        <v>-0.2847225624074373</v>
       </c>
       <c r="D92">
-        <v>0.004113003666389993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006813981528755815</v>
+      </c>
+      <c r="E92">
+        <v>0.06950481338168026</v>
+      </c>
+      <c r="F92">
+        <v>-0.08121464098772496</v>
+      </c>
+      <c r="G92">
+        <v>-0.007673079430937562</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.195771014359866</v>
+        <v>0.2247375670126297</v>
       </c>
       <c r="C93">
-        <v>0.3451192541747833</v>
+        <v>-0.3185552932768841</v>
       </c>
       <c r="D93">
-        <v>0.01348665866408746</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003444263785096159</v>
+      </c>
+      <c r="E93">
+        <v>0.04994579331629108</v>
+      </c>
+      <c r="F93">
+        <v>-0.04013714281049649</v>
+      </c>
+      <c r="G93">
+        <v>0.02874877297632396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3390581731304917</v>
+        <v>0.3426507980799468</v>
       </c>
       <c r="C94">
-        <v>-0.1362543971579485</v>
+        <v>0.1810020231442358</v>
       </c>
       <c r="D94">
-        <v>0.4250531108081652</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4937076272119481</v>
+      </c>
+      <c r="E94">
+        <v>0.04474541286889879</v>
+      </c>
+      <c r="F94">
+        <v>0.4429843394874612</v>
+      </c>
+      <c r="G94">
+        <v>-0.3310268668743354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1102079369752741</v>
+        <v>0.08567742918677385</v>
       </c>
       <c r="C95">
-        <v>-0.08725899874118968</v>
+        <v>0.06870087399262481</v>
       </c>
       <c r="D95">
-        <v>-0.1020230941260189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1703204636132284</v>
+      </c>
+      <c r="E95">
+        <v>-0.1066162665019054</v>
+      </c>
+      <c r="F95">
+        <v>-0.2269335758447956</v>
+      </c>
+      <c r="G95">
+        <v>-0.8654133631158378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1963213335988485</v>
+        <v>0.1879148151002639</v>
       </c>
       <c r="C98">
-        <v>-0.02299218684433384</v>
+        <v>0.04442211639475115</v>
       </c>
       <c r="D98">
-        <v>-0.1208063889800719</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1873751766985752</v>
+      </c>
+      <c r="E98">
+        <v>-0.1468752949304912</v>
+      </c>
+      <c r="F98">
+        <v>0.03390560008377748</v>
+      </c>
+      <c r="G98">
+        <v>0.1030617463706504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008632192603721826</v>
+        <v>0.00566396494096239</v>
       </c>
       <c r="C101">
-        <v>-0.03046405185252704</v>
+        <v>0.02889505407917675</v>
       </c>
       <c r="D101">
-        <v>0.01968570687711206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01773528230504788</v>
+      </c>
+      <c r="E101">
+        <v>0.03786874508641774</v>
+      </c>
+      <c r="F101">
+        <v>-0.0871622319614833</v>
+      </c>
+      <c r="G101">
+        <v>0.007502514912053075</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1213646441486766</v>
+        <v>0.1239493468878407</v>
       </c>
       <c r="C102">
-        <v>-0.0724449264265823</v>
+        <v>0.09934787822500375</v>
       </c>
       <c r="D102">
-        <v>0.028881134124381</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04869731039246308</v>
+      </c>
+      <c r="E102">
+        <v>-0.006388803639824072</v>
+      </c>
+      <c r="F102">
+        <v>-0.04445057346165467</v>
+      </c>
+      <c r="G102">
+        <v>0.02147711567225825</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
